--- a/odin/metadata_list.xlsx
+++ b/odin/metadata_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1ADE2D-4092-5549-B09E-AC78F4CA55CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A80B13D-C2E4-BB4A-BF6C-80C24B6B0368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>powershell -Command "$possibleKeys = @('HKLM:\SOFTWARE\Python\PythonCore', 'HKLM:\SOFTWARE\Wow6432Node\Python\PythonCore', 'HKCU:\SOFTWARE\Python\PythonCore'); foreach ($key in $possibleKeys) { if (Test-Path $key) { $subKeys = Get-ChildItem -Path $key; foreach ($subKey in $subKeys) { $installPathKey = Join-Path -Path $subKey.PSPath -ChildPath 'InstallPath'; if (Test-Path $installPathKey) { $installPath = (Get-ItemProperty -Path $installPathKey).'(default)'; $pythonExePath = Join-Path -Path $installPath -ChildPath 'python.exe'; if (Test-Path $pythonExePath) { $pythonPath = $pythonExePath; break } } } } }; if (-not $pythonPath) { $commonPaths = @('C:\Python39\python.exe', 'C:\Python38\python.exe', 'C:\Python37\python.exe', '$env:ProgramFiles\Python39\python.exe', '$env:ProgramFiles\Python38\python.exe', '$env:LOCALAPPDATA\Programs\Python\Python39\python.exe', '$env:LOCALAPPDATA\Programs\Python\Python38\python.exe'); foreach ($path in $commonPaths) { if (Test-Path $path) { $pythonPath = $path; break } } }; if (-not $pythonPath) { Write-Output 'Python executable not found. Please ensure Python is installed.'; exit 1 }; $pythonScriptPath = '.\odin_guard.py'; if (Test-Path -Path $pythonScriptPath) { &amp; $pythonPath $pythonScriptPath } else { Write-Output 'The specified Python script file was not found: $pythonScriptPath' }"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>powershell -Command "$pythonPath = (Get-Command python).Source; $pythonScriptPath = (Join-Path -Path (Get-Location) -ChildPath 'odin_guard.py'); $regPath = 'HKCU:\Software\Microsoft\Windows\CurrentVersion\Run'; $regName = 'MyPythonScript'; if ($pythonPath) { $command = '"' + $pythonPath + '" "' + $pythonScriptPath + '"'; New-ItemProperty -Path $regPath -Name $regName -Value $command -PropertyType String -Force; Write-Output '레지스트리에 파이썬 스크립트 자동 실행이 등록되었습니다.' } else { Write-Output 'Python이 시스템에 설치되어 있는지 확인해 주세요.' }"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,12 +448,12 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="2" max="2" width="128.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -495,7 +499,9 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
